--- a/Jogos_do_Dia/2024-03-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1381,13 +1381,13 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="L2">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
         <v>1.36</v>
@@ -1512,13 +1512,13 @@
         <v>4.1</v>
       </c>
       <c r="J3">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="K3">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L3">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
         <v>1.38</v>
@@ -1539,10 +1539,10 @@
         <v>3.61</v>
       </c>
       <c r="S3">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="U3">
         <v>1.72</v>
@@ -1774,13 +1774,13 @@
         <v>2.95</v>
       </c>
       <c r="J5">
-        <v>2.79</v>
+        <v>2.75</v>
       </c>
       <c r="K5">
-        <v>3.07</v>
+        <v>3.2</v>
       </c>
       <c r="L5">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M5">
         <v>1.4</v>
@@ -1801,10 +1801,10 @@
         <v>3.25</v>
       </c>
       <c r="S5">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="U5">
         <v>1.73</v>
@@ -2298,13 +2298,13 @@
         <v>7</v>
       </c>
       <c r="J9">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="K9">
-        <v>4.06</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>6.55</v>
+        <v>7</v>
       </c>
       <c r="M9">
         <v>1.44</v>
@@ -2325,10 +2325,10 @@
         <v>2.95</v>
       </c>
       <c r="S9">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="T9">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U9">
         <v>2.25</v>
@@ -2429,13 +2429,13 @@
         <v>1.83</v>
       </c>
       <c r="J10">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="K10">
-        <v>4.85</v>
+        <v>4.5</v>
       </c>
       <c r="L10">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="M10">
         <v>1.29</v>
@@ -2507,16 +2507,16 @@
         <v>0</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AN10">
         <v>1.68</v>
@@ -2822,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.15</v>
+        <v>7.02</v>
       </c>
       <c r="K13">
-        <v>4.48</v>
+        <v>4.5</v>
       </c>
       <c r="L13">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>3.2</v>
       </c>
       <c r="J18">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="K18">
-        <v>3.17</v>
+        <v>3.4</v>
       </c>
       <c r="L18">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="M18">
         <v>1.47</v>
@@ -3504,10 +3504,10 @@
         <v>3.15</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="T18">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="U18">
         <v>1.8</v>
@@ -3608,13 +3608,13 @@
         <v>4.33</v>
       </c>
       <c r="J19">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="L19">
-        <v>3.74</v>
+        <v>3.8</v>
       </c>
       <c r="M19">
         <v>1.4</v>
@@ -3635,10 +3635,10 @@
         <v>3.3</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="U19">
         <v>1.8</v>
@@ -3739,13 +3739,13 @@
         <v>6</v>
       </c>
       <c r="J20">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="K20">
-        <v>3.92</v>
+        <v>4</v>
       </c>
       <c r="L20">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="M20">
         <v>1.53</v>
@@ -3766,10 +3766,10 @@
         <v>2.5</v>
       </c>
       <c r="S20">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="T20">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="U20">
         <v>2.38</v>
@@ -3870,13 +3870,13 @@
         <v>1.92</v>
       </c>
       <c r="J21">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="K21">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="L21">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M21">
         <v>1.25</v>
@@ -3900,7 +3900,7 @@
         <v>1.36</v>
       </c>
       <c r="T21">
-        <v>2.82</v>
+        <v>3.1</v>
       </c>
       <c r="U21">
         <v>1.54</v>
@@ -4787,13 +4787,13 @@
         <v>2.5</v>
       </c>
       <c r="J28">
-        <v>3.93</v>
+        <v>3.75</v>
       </c>
       <c r="K28">
-        <v>3.73</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="M28">
         <v>1.4</v>
@@ -4814,10 +4814,10 @@
         <v>3.41</v>
       </c>
       <c r="S28">
-        <v>1.77</v>
+        <v>1.93</v>
       </c>
       <c r="T28">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="U28">
         <v>1.91</v>
@@ -6228,13 +6228,13 @@
         <v>2.3</v>
       </c>
       <c r="J39">
-        <v>4.26</v>
+        <v>4.33</v>
       </c>
       <c r="K39">
-        <v>3.86</v>
+        <v>3.6</v>
       </c>
       <c r="L39">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="M39">
         <v>1.4</v>
@@ -6258,7 +6258,7 @@
         <v>1.91</v>
       </c>
       <c r="T39">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="U39">
         <v>1.95</v>
@@ -6359,13 +6359,13 @@
         <v>4.7</v>
       </c>
       <c r="J40">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="K40">
-        <v>3.43</v>
+        <v>3.5</v>
       </c>
       <c r="L40">
-        <v>4.18</v>
+        <v>4.2</v>
       </c>
       <c r="M40">
         <v>1.41</v>
@@ -6386,10 +6386,10 @@
         <v>3.14</v>
       </c>
       <c r="S40">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="U40">
         <v>1.83</v>
@@ -6490,13 +6490,13 @@
         <v>2.88</v>
       </c>
       <c r="J41">
-        <v>2.93</v>
+        <v>2.63</v>
       </c>
       <c r="K41">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="L41">
-        <v>2.22</v>
+        <v>2.5</v>
       </c>
       <c r="M41">
         <v>1.29</v>
@@ -6517,10 +6517,10 @@
         <v>5.2</v>
       </c>
       <c r="S41">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="T41">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="U41">
         <v>1.5</v>
@@ -6621,13 +6621,13 @@
         <v>2.1</v>
       </c>
       <c r="J42">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="K42">
-        <v>4.41</v>
+        <v>4.2</v>
       </c>
       <c r="L42">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="M42">
         <v>1.33</v>
@@ -6648,10 +6648,10 @@
         <v>4.33</v>
       </c>
       <c r="S42">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="T42">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="U42">
         <v>1.8</v>
@@ -6883,13 +6883,13 @@
         <v>7.5</v>
       </c>
       <c r="J44">
-        <v>1.06</v>
+        <v>1.4</v>
       </c>
       <c r="K44">
-        <v>12.88</v>
+        <v>4.5</v>
       </c>
       <c r="L44">
-        <v>11.64</v>
+        <v>8</v>
       </c>
       <c r="M44">
         <v>1.33</v>
@@ -6910,10 +6910,10 @@
         <v>4.33</v>
       </c>
       <c r="S44">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U44">
         <v>2</v>
@@ -7014,13 +7014,13 @@
         <v>9.5</v>
       </c>
       <c r="J45">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="K45">
-        <v>7.45</v>
+        <v>7.9</v>
       </c>
       <c r="L45">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="M45">
         <v>1.22</v>
@@ -7041,10 +7041,10 @@
         <v>5.5</v>
       </c>
       <c r="S45">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T45">
-        <v>2.63</v>
+        <v>2.35</v>
       </c>
       <c r="U45">
         <v>2.1</v>
@@ -7145,13 +7145,13 @@
         <v>4.33</v>
       </c>
       <c r="J46">
-        <v>2.68</v>
+        <v>1.91</v>
       </c>
       <c r="K46">
-        <v>2.62</v>
+        <v>3.5</v>
       </c>
       <c r="L46">
-        <v>2.83</v>
+        <v>4</v>
       </c>
       <c r="M46">
         <v>1.4</v>
@@ -7172,10 +7172,10 @@
         <v>3.4</v>
       </c>
       <c r="S46">
+        <v>1.97</v>
+      </c>
+      <c r="T46">
         <v>1.93</v>
-      </c>
-      <c r="T46">
-        <v>1.87</v>
       </c>
       <c r="U46">
         <v>1.8</v>
@@ -7276,10 +7276,10 @@
         <v>4</v>
       </c>
       <c r="J47">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K47">
-        <v>3.44</v>
+        <v>3.5</v>
       </c>
       <c r="L47">
         <v>3.6</v>
@@ -7303,10 +7303,10 @@
         <v>3.4</v>
       </c>
       <c r="S47">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="T47">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="U47">
         <v>1.8</v>
@@ -7407,13 +7407,13 @@
         <v>4.75</v>
       </c>
       <c r="J48">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K48">
-        <v>3.37</v>
+        <v>3.25</v>
       </c>
       <c r="L48">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
         <v>1.5</v>
@@ -7434,10 +7434,10 @@
         <v>2.45</v>
       </c>
       <c r="S48">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="T48">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U48">
         <v>2</v>
@@ -7538,13 +7538,13 @@
         <v>3.4</v>
       </c>
       <c r="J49">
-        <v>2.84</v>
+        <v>2.63</v>
       </c>
       <c r="K49">
-        <v>3.08</v>
+        <v>3.25</v>
       </c>
       <c r="L49">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="M49">
         <v>1.57</v>
@@ -7669,13 +7669,13 @@
         <v>4</v>
       </c>
       <c r="J50">
-        <v>2.28</v>
+        <v>2.25</v>
       </c>
       <c r="K50">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L50">
-        <v>2.87</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
         <v>1.47</v>
@@ -7696,10 +7696,10 @@
         <v>2.75</v>
       </c>
       <c r="S50">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="T50">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U50">
         <v>1.92</v>
@@ -7800,13 +7800,13 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K51">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L51">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -7827,10 +7827,10 @@
         <v>0</v>
       </c>
       <c r="S51">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="T51">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -7931,13 +7931,13 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="K52">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="L52">
-        <v>2.99</v>
+        <v>3.1</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -7958,10 +7958,10 @@
         <v>0</v>
       </c>
       <c r="S52">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="T52">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -8979,13 +8979,13 @@
         <v>7.5</v>
       </c>
       <c r="J60">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="K60">
-        <v>5.05</v>
+        <v>5</v>
       </c>
       <c r="L60">
-        <v>7.65</v>
+        <v>7.5</v>
       </c>
       <c r="M60">
         <v>1.3</v>
@@ -9006,10 +9006,10 @@
         <v>4.5</v>
       </c>
       <c r="S60">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="T60">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
         <v>1.95</v>
@@ -9765,13 +9765,13 @@
         <v>5.06</v>
       </c>
       <c r="J66">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="K66">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L66">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M66">
         <v>1.54</v>
@@ -9786,16 +9786,16 @@
         <v>5.8</v>
       </c>
       <c r="Q66">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="R66">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="S66">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="T66">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U66">
         <v>2.17</v>
@@ -10158,13 +10158,13 @@
         <v>4.75</v>
       </c>
       <c r="J69">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="K69">
-        <v>4.59</v>
+        <v>4.33</v>
       </c>
       <c r="L69">
-        <v>5.19</v>
+        <v>5.5</v>
       </c>
       <c r="M69">
         <v>1.25</v>
@@ -10185,10 +10185,10 @@
         <v>5.5</v>
       </c>
       <c r="S69">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="T69">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="U69">
         <v>1.57</v>
@@ -10551,13 +10551,13 @@
         <v>4.33</v>
       </c>
       <c r="J72">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="K72">
-        <v>3.83</v>
+        <v>3.75</v>
       </c>
       <c r="L72">
-        <v>3.76</v>
+        <v>4</v>
       </c>
       <c r="M72">
         <v>1.33</v>
@@ -10578,10 +10578,10 @@
         <v>4</v>
       </c>
       <c r="S72">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="U72">
         <v>1.7</v>
@@ -10682,13 +10682,13 @@
         <v>6.5</v>
       </c>
       <c r="J73">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="K73">
-        <v>5.11</v>
+        <v>5</v>
       </c>
       <c r="L73">
-        <v>6.47</v>
+        <v>7</v>
       </c>
       <c r="M73">
         <v>1.29</v>
@@ -10813,13 +10813,13 @@
         <v>3.6</v>
       </c>
       <c r="J74">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="K74">
-        <v>3.25</v>
+        <v>3.38</v>
       </c>
       <c r="L74">
-        <v>3.27</v>
+        <v>3.26</v>
       </c>
       <c r="M74">
         <v>1.36</v>
@@ -11468,13 +11468,13 @@
         <v>3.75</v>
       </c>
       <c r="J79">
-        <v>3.44</v>
+        <v>2.2</v>
       </c>
       <c r="K79">
-        <v>1.64</v>
+        <v>3.25</v>
       </c>
       <c r="L79">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M79">
         <v>1.5</v>
@@ -11495,10 +11495,10 @@
         <v>3</v>
       </c>
       <c r="S79">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="T79">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="U79">
         <v>1.95</v>
@@ -11599,13 +11599,13 @@
         <v>3.75</v>
       </c>
       <c r="J80">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="K80">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="L80">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="M80">
         <v>1.57</v>
@@ -11620,16 +11620,16 @@
         <v>5.8</v>
       </c>
       <c r="Q80">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="R80">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="S80">
-        <v>2.2</v>
+        <v>2.85</v>
       </c>
       <c r="T80">
-        <v>1.6</v>
+        <v>1.36</v>
       </c>
       <c r="U80">
         <v>2.25</v>
@@ -11730,13 +11730,13 @@
         <v>5</v>
       </c>
       <c r="J81">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="K81">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="L81">
-        <v>4.47</v>
+        <v>4.5</v>
       </c>
       <c r="M81">
         <v>1.5</v>
@@ -11757,10 +11757,10 @@
         <v>2.8</v>
       </c>
       <c r="S81">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="T81">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U81">
         <v>2</v>
@@ -11861,13 +11861,13 @@
         <v>2.15</v>
       </c>
       <c r="J82">
-        <v>5.2</v>
+        <v>4.75</v>
       </c>
       <c r="K82">
-        <v>4.22</v>
+        <v>4</v>
       </c>
       <c r="L82">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="M82">
         <v>1.3</v>
@@ -11888,10 +11888,10 @@
         <v>4.5</v>
       </c>
       <c r="S82">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="T82">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="U82">
         <v>1.7</v>
@@ -11992,10 +11992,10 @@
         <v>0</v>
       </c>
       <c r="J83">
-        <v>9.779999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="K83">
-        <v>5.11</v>
+        <v>5</v>
       </c>
       <c r="L83">
         <v>1.33</v>
@@ -12019,10 +12019,10 @@
         <v>0</v>
       </c>
       <c r="S83">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="T83">
-        <v>1.94</v>
+        <v>2.03</v>
       </c>
       <c r="U83">
         <v>0</v>
@@ -12254,13 +12254,13 @@
         <v>4</v>
       </c>
       <c r="J85">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="K85">
-        <v>3.22</v>
+        <v>3.28</v>
       </c>
       <c r="L85">
-        <v>3.63</v>
+        <v>3.3</v>
       </c>
       <c r="M85">
         <v>1.4</v>
@@ -12385,13 +12385,13 @@
         <v>5</v>
       </c>
       <c r="J86">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K86">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L86">
-        <v>4.88</v>
+        <v>5</v>
       </c>
       <c r="M86">
         <v>1.4</v>
@@ -12412,10 +12412,10 @@
         <v>3.5</v>
       </c>
       <c r="S86">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="U86">
         <v>1.83</v>
@@ -12647,13 +12647,13 @@
         <v>5</v>
       </c>
       <c r="J88">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="K88">
-        <v>4.27</v>
+        <v>4.33</v>
       </c>
       <c r="L88">
-        <v>5.14</v>
+        <v>5.5</v>
       </c>
       <c r="M88">
         <v>1.33</v>
@@ -12674,10 +12674,10 @@
         <v>4.33</v>
       </c>
       <c r="S88">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T88">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="U88">
         <v>1.75</v>
@@ -12778,13 +12778,13 @@
         <v>3.4</v>
       </c>
       <c r="J89">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="K89">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M89">
         <v>1.3</v>
@@ -12909,13 +12909,13 @@
         <v>0</v>
       </c>
       <c r="J90">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="K90">
-        <v>3.02</v>
+        <v>7.5</v>
       </c>
       <c r="L90">
-        <v>15.66</v>
+        <v>19</v>
       </c>
       <c r="M90">
         <v>0</v>

--- a/Jogos_do_Dia/2024-03-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-03-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -5049,13 +5049,13 @@
         <v>2.57</v>
       </c>
       <c r="J30">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="K30">
-        <v>3.18</v>
+        <v>3.6</v>
       </c>
       <c r="L30">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="M30">
         <v>1.33</v>
@@ -5076,10 +5076,10 @@
         <v>3.65</v>
       </c>
       <c r="S30">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="T30">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="U30">
         <v>1.66</v>
@@ -5704,13 +5704,13 @@
         <v>2.5</v>
       </c>
       <c r="J35">
+        <v>3.8</v>
+      </c>
+      <c r="K35">
         <v>4</v>
       </c>
-      <c r="K35">
-        <v>3.45</v>
-      </c>
       <c r="L35">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="M35">
         <v>1.27</v>
@@ -5734,7 +5734,7 @@
         <v>1.57</v>
       </c>
       <c r="T35">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="U35">
         <v>1.5</v>
@@ -5835,13 +5835,13 @@
         <v>10.5</v>
       </c>
       <c r="J36">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="K36">
-        <v>6.05</v>
+        <v>6</v>
       </c>
       <c r="L36">
-        <v>9.65</v>
+        <v>12</v>
       </c>
       <c r="M36">
         <v>1.25</v>
@@ -5862,10 +5862,10 @@
         <v>5.05</v>
       </c>
       <c r="S36">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="T36">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="U36">
         <v>2.25</v>
@@ -10420,13 +10420,13 @@
         <v>8</v>
       </c>
       <c r="J71">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="K71">
-        <v>7.65</v>
+        <v>6.5</v>
       </c>
       <c r="L71">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M71">
         <v>1.24</v>
